--- a/medicine/Handicap/U2800/U2800.xlsx
+++ b/medicine/Handicap/U2800/U2800.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Table des caractères Unicode U+2800 à U+28FF.
 </t>
@@ -511,13 +523,15 @@
           <t>Motifs Braille</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Jeu de symboles composés de tous les motifs de points disposés sur une grille 2 × 4, utilisés pour l’écriture Braille à destination des aveugles.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jeu de symboles composés de tous les motifs de points disposés sur une grille 2 × 4, utilisés pour l’écriture Braille à destination des aveugles.
 Ces symboles sont normalement lus à l’endroit en relief, mais tracés au poinçon à l’envers sur un papier épais (inversion droite/gauche) ; pour l’impression avec une encre en relief, l’inversion n’est pas nécessaire.
 Les points de chaque motif sont conventionnellement disposés et numérotés de la façon suivante :
 Normalement seuls les 64 premiers symboles (motifs composés avec les 6 points des trois rangées supérieures) sont utilisés pour l’usage courant (alphabets et chiffres de base), les motifs suivants (avec un ou deux points dans la rangée inférieure) peuvent servir pour des notations spéciales ou pour noter des abréviations. Ces symboles sont génériques, leur usage dépendant des conventions de transcription propres à chaque langue.
-Table des caractères</t>
+</t>
         </is>
       </c>
     </row>
